--- a/biology/Médecine/Robert_Jütte/Robert_Jütte.xlsx
+++ b/biology/Médecine/Robert_Jütte/Robert_Jütte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Robert_J%C3%BCtte</t>
+          <t>Robert_Jütte</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert Jütte (né le 12 septembre 1954 à Warstein) est un historien médical allemand. De 1990 à 2020, il dirige l'Institut d'histoire de la médecine de la Fondation Robert-Bosch (de) à Stuttgart.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Robert_J%C3%BCtte</t>
+          <t>Robert_Jütte</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jütte étudie l'histoire, l'allemand et les sciences politiques à Marbourg, Londres et Münster en tant que boursier de la Fondation académique nationale allemande. Il obtient son doctorat à l'Université de Münster en 1982 et son habilitation en histoire moderne à l'Université de Bielefeld en 1990.
-De 1983 à 1989, il est chargé de cours puis professeur d'histoire moderne à l'Université de Haïfa en Israël. En 1990, il devient directeur de l'Institut d'histoire de la médecine de la Fondation Robert-Bosch à Stuttgart. L'institut recherche comme objectif principal l'histoire de l'homéopathie ; la succession de Samuel Hahnemann est conservée à l'institut[1]. En 1991, il est nommé professeur honoraire à l'Université de Stuttgart. Des invitations le conduisent aux universités d'Innsbruck (2001), de Zurich (2006/2007) et de l'ETH Zurich (2018).
+De 1983 à 1989, il est chargé de cours puis professeur d'histoire moderne à l'Université de Haïfa en Israël. En 1990, il devient directeur de l'Institut d'histoire de la médecine de la Fondation Robert-Bosch à Stuttgart. L'institut recherche comme objectif principal l'histoire de l'homéopathie ; la succession de Samuel Hahnemann est conservée à l'institut. En 1991, il est nommé professeur honoraire à l'Université de Stuttgart. Des invitations le conduisent aux universités d'Innsbruck (2001), de Zurich (2006/2007) et de l'ETH Zurich (2018).
 Jütte publie de nombreux essais et livres sur l'histoire de la médecine, en particulier l'histoire des médecines alternatives, l'homéopathie et l'histoire sociale de la médecine ainsi que l'histoire quotidienne et culturelle.
-Jütte est membre du conseil consultatif scientifique de l'Association médicale allemande depuis 1994, de 2001 à 2019, il est membre du conseil d'administration et de 2016 à 2019 vice-président. Il est également membre du conseil d'administration du Centre d'études allemandes de Venise (de). Il est également membre du conseil consultatif scientifique du Musée allemand de l'hygiène à Dresde (1993-2007) et secrétaire de l'Association européenne pour l'histoire de la médecine et de la santé. En 2018, il reçoit le "Docteur en lettres hébraïques" honoris causa de l'Institut pour l'apprentissage et le leadership juifs à Chicago, en 2020 la distinction Otto-Hirsch de la ville de Stuttgart[2].
+Jütte est membre du conseil consultatif scientifique de l'Association médicale allemande depuis 1994, de 2001 à 2019, il est membre du conseil d'administration et de 2016 à 2019 vice-président. Il est également membre du conseil d'administration du Centre d'études allemandes de Venise (de). Il est également membre du conseil consultatif scientifique du Musée allemand de l'hygiène à Dresde (1993-2007) et secrétaire de l'Association européenne pour l'histoire de la médecine et de la santé. En 2018, il reçoit le "Docteur en lettres hébraïques" honoris causa de l'Institut pour l'apprentissage et le leadership juifs à Chicago, en 2020 la distinction Otto-Hirsch de la ville de Stuttgart.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Robert_J%C3%BCtte</t>
+          <t>Robert_Jütte</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Axes de recherche</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses recherches portent sur l'histoire sociale de la médecine, l'histoire des sciences, l'histoire urbaine comparée, l'histoire quotidienne et culturelle à l'époque moderne et l'histoire juive.
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Robert_J%C3%BCtte</t>
+          <t>Robert_Jütte</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,8 +594,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>En tant qu'auteur
-Sprachsoziologische und lexikologische Untersuchungen zu einer Sondersprache. Die Sensenhändler im Hochsauerland und die Reste ihrer Geheimsprache. Steiner, Wiesbaden 1978,  (ISBN 3-515-02660-6).
+          <t>En tant qu'auteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Sprachsoziologische und lexikologische Untersuchungen zu einer Sondersprache. Die Sensenhändler im Hochsauerland und die Reste ihrer Geheimsprache. Steiner, Wiesbaden 1978,  (ISBN 3-515-02660-6).
 Obrigkeitliche Armenfürsorge in deutschen Reichsstädten der frühen Neuzeit. Städtisches Armenwesen in Frankfurt am Main und Köln. Böhlau, Köln 1984,  (ISBN 3-412-03184-4) (zugleich: Dissertation, Universität Münster, 1982).
 Hedwig Hintze (1884–1942) – Die Herausforderung der traditionellen Geschichtsschreibung durch eine linksliberale jüdische Historikerin. In: Walter Grab (de): Juden in der deutschen Wissenschaft. Nateev Pr. and Publ. Enterprises, Tel-Aviv 1986, Tagungsband eines gleichnamigen Internationalen Symposiums an der Universität Tel-Aviv, Institut für Deutsche Geschichte, im April 1985 (= Jahrbuch des Instituts für Deutsche Geschichte (de). Beiheft 10).
 Abbild und soziale Wirklichkeit des Bettler- und Gaunertums zu Beginn der Neuzeit. Sozial-, mentalitäts- und sprachgeschichtliche Studien zum Liber vagatorum (1510). Böhlau, Köln 1988,  (ISBN 3-412-00288-7).
@@ -596,9 +617,43 @@
 Medizin und Nationalsozialismus. Bilanz und Perspektiven der Forschung. Wallstein, Göttingen 2011,  (ISBN 978-3-8353-0659-2).
 Krankheit und Gesundheit in der Frühen Neuzeit. Kohlhammer, Stuttgart 2013,  (ISBN 978-3-17-022227-4).
 Leib und Leben im Judentum. Jüdischer Verlag im Suhrkamp Verlag, Berlin 2016,  (ISBN 978-3-633-54282-6). Englische Übersetzung: University of Pennsylvania, Philadelphia 2020.
-Bücher im Exil. Lebensspuren ihrer jüdischen Besitzer (= ZeitgeschichteN, Band 25). Metropol Verlag, Berlin 2022,  (ISBN 978-3-86331-658-7).
-En tant qu'éditeur
-Die Geschichte der Abtreibung. Von der Antike bis zur Gegenwart. C. H. Beck, München 1993 (Beck’sche Reihe. Band 1018),  (ISBN 3-406-37408-5).
+Bücher im Exil. Lebensspuren ihrer jüdischen Besitzer (= ZeitgeschichteN, Band 25). Metropol Verlag, Berlin 2022,  (ISBN 978-3-86331-658-7).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Robert_Jütte</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Robert_J%C3%BCtte</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications (sélection)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>En tant qu'éditeur</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Die Geschichte der Abtreibung. Von der Antike bis zur Gegenwart. C. H. Beck, München 1993 (Beck’sche Reihe. Band 1018),  (ISBN 3-406-37408-5).
 mit Neithard Bulst (de): Zwischen Sein und Schein. Kleidung und Identität in der ständischen Gesellschaft (= Saeculum. Band 44, Heft 1). Karl Alber Verlag, Freiburg im Breisgau 1993.
 Paracelsus heute – Im Lichte der Natur. Karl F. Haug Verlag, Heidelberg 1994.
 mit Wolfgang U. Eckart: Das europäische Gesundheitssystem. Gemeinsamkeiten und Unterschiede in historischer Perspektive (= Medizin, Gesellschaft und Geschichte, Beihefte. Band 4), Stuttgart 1994.
